--- a/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Métricas.xlsx
+++ b/Material + Ano/ResNet/Tentativa 2/Com Tentativa 2 - Material/Métricas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material + Ano\ResNet\Tentativa 2\Com Tentativa 2 - Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8757495C-F970-46FA-8FB7-F701ACF0DACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F57C52E-5F6C-4437-A81A-447F4BAE6A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.98299845440494593</v>
+        <v>0.98763523956723343</v>
       </c>
       <c r="C2" s="2">
-        <v>0.52941176470588236</v>
+        <v>0.625</v>
       </c>
       <c r="D2" s="2">
-        <v>0.75</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="E2" s="2">
-        <v>0.62068965517241392</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -496,16 +496,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.90571870170015456</v>
+        <v>0.90726429675425035</v>
       </c>
       <c r="C5" s="2">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D5" s="2">
         <v>3.5087719298245612E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>6.1538461538461528E-2</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -516,13 +516,13 @@
         <v>0.90571870170015456</v>
       </c>
       <c r="C6" s="2">
-        <v>0.91013071895424835</v>
+        <v>0.90879478827361559</v>
       </c>
       <c r="D6" s="2">
-        <v>0.98934280639431615</v>
+        <v>0.99111900532859676</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9480851063829786</v>
+        <v>0.94817332200509774</v>
       </c>
     </row>
   </sheetData>
